--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -1,64 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43b672182c2baf43/WIP/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5B7DD87E841FB1658975330D4C5DF8FC757B433B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Daily Amazon" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>woah</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
-    <t>Red Hulk</t>
-  </si>
-  <si>
-    <t>14.41</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,22 +48,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,48 +389,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>woah</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Red Hulk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bottle</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>All Might</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sold Price</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Item Cost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>All Might</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -16,8 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,9 +49,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -477,6 +479,23 @@
       </c>
       <c r="C5" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Deku GITD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -490,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="A2:E2"/>
@@ -561,7 +580,34 @@
         <v>10.01</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1"/>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>All Might</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.989999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -1,37 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43b672182c2baf43/WIP/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FEA55457735365ECFC80F7742FEAC215955832D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED9BB89-06E9-4A67-A7D6-7784D6D8D17D}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Daily Amazon" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily Amazon" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>woah</t>
+  </si>
+  <si>
+    <t>14.99</t>
+  </si>
+  <si>
+    <t>Red Hulk</t>
+  </si>
+  <si>
+    <t>14.41</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>All Might</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>Deku GITD</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Killua</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Eri</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sold Price</t>
+  </si>
+  <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Item Cost</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,82 +132,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,111 +414,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>woah</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Red Hulk</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14.41</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bottle</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>All Might</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Deku GITD</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -504,107 +517,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="10.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Sold Price</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Item Cost</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>44853</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>All Might</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>10.01</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>44853</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>All Might</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>-2.989999999999998</v>
       </c>
     </row>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43b672182c2baf43/WIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FEA55457735365ECFC80F7742FEAC215955832D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED9BB89-06E9-4A67-A7D6-7784D6D8D17D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FCA9B44773F3E9F2EC89117531854295977A62C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C2BC08-BA97-402F-AD6B-A055BCD965BC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Amazon" sheetId="2" r:id="rId2"/>
+    <sheet name="Pay Period" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -32,43 +33,13 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>woah</t>
-  </si>
-  <si>
-    <t>14.99</t>
-  </si>
-  <si>
-    <t>Red Hulk</t>
-  </si>
-  <si>
-    <t>14.41</t>
-  </si>
-  <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>All Might</t>
-  </si>
-  <si>
-    <t>17.99</t>
-  </si>
-  <si>
-    <t>Deku GITD</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Killua</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Eri</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>Trafalger Law</t>
+  </si>
+  <si>
+    <t>Gyomei</t>
+  </si>
+  <si>
+    <t>Eri HT</t>
   </si>
   <si>
     <t>Date</t>
@@ -86,13 +57,13 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt </t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -415,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,90 +409,48 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>18.75</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>17.899999999999999</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,64 +458,140 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>13.61</v>
+      </c>
+      <c r="E2">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>44853</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2">
-        <v>10.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>44853</v>
+        <v>14.39</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44862</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>95.6</v>
+      </c>
+      <c r="D3">
+        <v>22.08</v>
+      </c>
+      <c r="E3">
+        <v>18.75</v>
       </c>
       <c r="F3">
-        <v>-2.989999999999998</v>
+        <v>54.77</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>45.4</v>
+      </c>
+      <c r="D4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F4">
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44862</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>13.61</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>14.39</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF4881F-FFD0-4F11-92A6-2967A083756C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-7575" yWindow="4185" windowWidth="7680" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily Amazon" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pay Period" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mom Cost" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Daily Amazon" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Pay Period" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mom Cost" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -735,6 +735,23 @@
       </c>
       <c r="C24" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>goku</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-7575" yWindow="4185" windowWidth="7680" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,15 +12,14 @@
     <sheet name="Mom Cost" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -57,11 +56,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +403,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -518,7 +516,7 @@
         <v>4.9</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -619,139 +617,92 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Isabela</t>
+          <t>Killua w/ Yoyo</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+        <v>17.99</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Naruto with Rasengan</t>
+          <t>Deku Glow</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Killua w/ Yoyo</t>
+          <t>Moon Knight Glow</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17.99</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Deku Glow</t>
+          <t>Komugi</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>16.99</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Moon Knight Glow</t>
+          <t>2 Spiderman</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17.99</v>
+        <v>18.72</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Komugi</t>
+          <t>Tracksuit Jerry</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16.99</v>
+        <v>15.99</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2 Spiderman</t>
+          <t>Doctor Strange GITD</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.72</v>
+        <v>17.9</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Tracksuit Jerry</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Doctor Strange GITD</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C24" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>goku</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -768,7 +719,7 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="111" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="111" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -2254,7 +2205,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="1" t="n">
         <v>44918</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2279,7 +2230,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="1" t="n">
         <v>44918</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2292,7 +2243,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="1" t="n">
         <v>44918</v>
       </c>
       <c r="B67" t="inlineStr">

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12945" yWindow="0" windowWidth="7680" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -405,8 +405,8 @@
   </sheetPr>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -717,10 +717,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="111" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2265,6 +2265,72 @@
       </c>
       <c r="G67" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Gotenks</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Gotenks</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Gotenks</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20.88</v>
       </c>
     </row>
   </sheetData>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -723,7 +723,7 @@
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.140625" customWidth="1" min="2" max="2"/>
@@ -2351,7 +2351,7 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>

--- a/Test Excel.xlsx
+++ b/Test Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12945" yWindow="0" windowWidth="7680" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -719,13 +719,13 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="111" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.140625" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2351,7 +2351,7 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.140625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
